--- a/Code/Results/Cases/Case_4_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.38184222856673</v>
+        <v>12.84023821168083</v>
       </c>
       <c r="C2">
-        <v>7.157877678387783</v>
+        <v>9.781283343322601</v>
       </c>
       <c r="D2">
-        <v>7.097094417042252</v>
+        <v>5.993580226704076</v>
       </c>
       <c r="E2">
-        <v>8.27578428633378</v>
+        <v>12.33837409638935</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.93357938527064</v>
+        <v>32.9901924768825</v>
       </c>
       <c r="H2">
-        <v>9.461490470205652</v>
+        <v>15.38418426132653</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.41969693072242</v>
+        <v>9.210244328205697</v>
       </c>
       <c r="L2">
-        <v>6.759276682018632</v>
+        <v>9.591404291577017</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.50036820676726</v>
+        <v>19.32830099535265</v>
       </c>
       <c r="O2">
-        <v>15.76673864327779</v>
+        <v>23.97718350526246</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.40417260578363</v>
+        <v>12.58943077656771</v>
       </c>
       <c r="C3">
-        <v>7.171582938059112</v>
+        <v>9.788274168705188</v>
       </c>
       <c r="D3">
-        <v>6.609474466856657</v>
+        <v>5.8760839877027</v>
       </c>
       <c r="E3">
-        <v>8.143982581526089</v>
+        <v>12.34911265211248</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.49265591509564</v>
+        <v>33.02542002083</v>
       </c>
       <c r="H3">
-        <v>9.491845966823723</v>
+        <v>15.42586574712571</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.76050581078882</v>
+        <v>9.02916486235115</v>
       </c>
       <c r="L3">
-        <v>6.553471733777286</v>
+        <v>9.576760776188625</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.69749124357429</v>
+        <v>19.38750980939713</v>
       </c>
       <c r="O3">
-        <v>15.70941742433446</v>
+        <v>24.03776683323631</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.77745732303183</v>
+        <v>12.43536905247331</v>
       </c>
       <c r="C4">
-        <v>7.180992493177103</v>
+        <v>9.793015334259689</v>
       </c>
       <c r="D4">
-        <v>6.293056031463657</v>
+        <v>5.804475455930962</v>
       </c>
       <c r="E4">
-        <v>8.067118546296538</v>
+        <v>12.35798159761138</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.24298547670684</v>
+        <v>33.05625012720981</v>
       </c>
       <c r="H4">
-        <v>9.516062986172628</v>
+        <v>15.45375310135008</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.33436634496217</v>
+        <v>8.917613391251496</v>
       </c>
       <c r="L4">
-        <v>6.427196806658319</v>
+        <v>9.569410654456531</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.82126717065248</v>
+        <v>19.42556190027062</v>
       </c>
       <c r="O4">
-        <v>15.68629214507521</v>
+        <v>24.07966041423783</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.53389610761662</v>
+        <v>12.37265995368571</v>
       </c>
       <c r="C5">
-        <v>7.185075673362411</v>
+        <v>9.795060631811774</v>
       </c>
       <c r="D5">
-        <v>6.179811450179956</v>
+        <v>5.775474109837433</v>
       </c>
       <c r="E5">
-        <v>8.036834316153689</v>
+        <v>12.36216818544895</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.14652002468366</v>
+        <v>33.07112251779789</v>
       </c>
       <c r="H5">
-        <v>9.5272896160833</v>
+        <v>15.46569442698788</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.15537633348914</v>
+        <v>8.872124763251906</v>
       </c>
       <c r="L5">
-        <v>6.375834711055966</v>
+        <v>9.566830612962923</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.87241660106899</v>
+        <v>19.44149657264376</v>
       </c>
       <c r="O5">
-        <v>15.6798114127497</v>
+        <v>24.09791130606978</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.49303745289443</v>
+        <v>12.36225414564156</v>
       </c>
       <c r="C6">
-        <v>7.185768665724132</v>
+        <v>9.79540710232998</v>
       </c>
       <c r="D6">
-        <v>6.160851357664314</v>
+        <v>5.7706706436894</v>
       </c>
       <c r="E6">
-        <v>8.031868800752221</v>
+        <v>12.36289794169544</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.13081980535387</v>
+        <v>33.07373135920385</v>
       </c>
       <c r="H6">
-        <v>9.529234517651419</v>
+        <v>15.46771212340668</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.12533459328501</v>
+        <v>8.864571409365132</v>
       </c>
       <c r="L6">
-        <v>6.367314084685879</v>
+        <v>9.566427344268151</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.88095337016057</v>
+        <v>19.44416840805015</v>
       </c>
       <c r="O6">
-        <v>15.67891028181746</v>
+        <v>24.10101300344635</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.77420051058363</v>
+        <v>12.43452292452396</v>
       </c>
       <c r="C7">
-        <v>7.181046555079639</v>
+        <v>9.793042458862642</v>
       </c>
       <c r="D7">
-        <v>6.291539298818813</v>
+        <v>5.804083545846699</v>
       </c>
       <c r="E7">
-        <v>8.066705897598405</v>
+        <v>12.35803574149084</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.24166318155467</v>
+        <v>33.05644135992272</v>
       </c>
       <c r="H7">
-        <v>9.516208952422197</v>
+        <v>15.45391181003883</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.33197395262646</v>
+        <v>8.916999956199131</v>
       </c>
       <c r="L7">
-        <v>6.426503631298923</v>
+        <v>9.569374174869846</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.82195408975402</v>
+        <v>19.42577506567042</v>
       </c>
       <c r="O7">
-        <v>15.68619295177549</v>
+        <v>24.0799017811437</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.05208459005144</v>
+        <v>12.7538258908751</v>
       </c>
       <c r="C8">
-        <v>7.162396005592413</v>
+        <v>9.783600869568644</v>
       </c>
       <c r="D8">
-        <v>6.932500056309594</v>
+        <v>5.952983561099656</v>
       </c>
       <c r="E8">
-        <v>8.229506792337641</v>
+        <v>12.34160468180769</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.77717369073478</v>
+        <v>33.00042700311513</v>
       </c>
       <c r="H8">
-        <v>9.470771968683007</v>
+        <v>15.3980797464507</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.19687028580578</v>
+        <v>9.147921236525086</v>
       </c>
       <c r="L8">
-        <v>6.688339149207686</v>
+        <v>9.586016208835591</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.56777975322379</v>
+        <v>19.34836460600367</v>
       </c>
       <c r="O8">
-        <v>15.74441480575587</v>
+        <v>23.99709715806537</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.29693486174513</v>
+        <v>13.3756744375495</v>
       </c>
       <c r="C9">
-        <v>7.133779094611871</v>
+        <v>9.768629828308798</v>
       </c>
       <c r="D9">
-        <v>8.055590136826611</v>
+        <v>6.24726268915424</v>
       </c>
       <c r="E9">
-        <v>8.58013736123147</v>
+        <v>12.327421171345</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.99426542210852</v>
+        <v>32.96373786607671</v>
       </c>
       <c r="H9">
-        <v>9.42798648617401</v>
+        <v>15.3068023259555</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.72194539435618</v>
+        <v>9.595197682465301</v>
       </c>
       <c r="L9">
-        <v>7.199521092940285</v>
+        <v>9.631549618820149</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.09012541224613</v>
+        <v>19.20997482035023</v>
       </c>
       <c r="O9">
-        <v>15.9582847175296</v>
+        <v>23.87204415663869</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.77908879621182</v>
+        <v>13.82504546528502</v>
       </c>
       <c r="C10">
-        <v>7.117704217374489</v>
+        <v>9.759768467599306</v>
       </c>
       <c r="D10">
-        <v>8.800568241214549</v>
+        <v>6.462322477160375</v>
       </c>
       <c r="E10">
-        <v>8.855617292058588</v>
+        <v>12.32796533691305</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.98902711049042</v>
+        <v>32.98151559446007</v>
       </c>
       <c r="H10">
-        <v>9.427668276295462</v>
+        <v>15.25084292730789</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.73738048174827</v>
+        <v>9.917036502837009</v>
       </c>
       <c r="L10">
-        <v>7.570072641709078</v>
+        <v>9.672685728080543</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.75042591907381</v>
+        <v>19.11639327484547</v>
       </c>
       <c r="O10">
-        <v>16.18125995227217</v>
+        <v>23.80301536288514</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.41779737233011</v>
+        <v>14.02688335729686</v>
       </c>
       <c r="C11">
-        <v>7.111490173658251</v>
+        <v>9.756196641129058</v>
       </c>
       <c r="D11">
-        <v>9.122490229795551</v>
+        <v>6.559402341912223</v>
       </c>
       <c r="E11">
-        <v>8.984535272096396</v>
+        <v>12.33058322531167</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.46291222566989</v>
+        <v>32.99931831986341</v>
       </c>
       <c r="H11">
-        <v>9.434917313096779</v>
+        <v>15.22779637151254</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.17654449466205</v>
+        <v>10.06131209341119</v>
       </c>
       <c r="L11">
-        <v>7.736908858257408</v>
+        <v>9.69302370692083</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.59799053903833</v>
+        <v>19.07556033697212</v>
       </c>
       <c r="O11">
-        <v>16.29798550035531</v>
+        <v>23.77659017256266</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.65461085636398</v>
+        <v>14.10286777368044</v>
       </c>
       <c r="C12">
-        <v>7.109297211269585</v>
+        <v>9.754909729044501</v>
       </c>
       <c r="D12">
-        <v>9.241987813073774</v>
+        <v>6.596016203992868</v>
       </c>
       <c r="E12">
-        <v>9.033846702005736</v>
+        <v>12.33191414464206</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.64538015619021</v>
+        <v>33.00745457936239</v>
       </c>
       <c r="H12">
-        <v>9.438779082705231</v>
+        <v>15.21941575616375</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.33958181329009</v>
+        <v>10.11558754374332</v>
       </c>
       <c r="L12">
-        <v>7.799790890745355</v>
+        <v>9.700954649087972</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.54053933928716</v>
+        <v>19.06034655287849</v>
       </c>
       <c r="O12">
-        <v>16.34445985767616</v>
+        <v>23.76730030224388</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.60383257004784</v>
+        <v>14.08652421891455</v>
       </c>
       <c r="C13">
-        <v>7.109762344992274</v>
+        <v>9.755183974322302</v>
       </c>
       <c r="D13">
-        <v>9.216358393652351</v>
+        <v>6.588137958077703</v>
       </c>
       <c r="E13">
-        <v>9.02320506292995</v>
+        <v>12.33161242678917</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.60594907299296</v>
+        <v>33.00564031047644</v>
       </c>
       <c r="H13">
-        <v>9.437896854464352</v>
+        <v>15.22120525427468</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.30461379808448</v>
+        <v>10.10391510055972</v>
       </c>
       <c r="L13">
-        <v>7.786261922732816</v>
+        <v>9.699236447412112</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.55290082553874</v>
+        <v>19.06361206750936</v>
       </c>
       <c r="O13">
-        <v>16.33434855653111</v>
+        <v>23.76926914643943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.43738106535503</v>
+        <v>14.03314402190172</v>
       </c>
       <c r="C14">
-        <v>7.111306534279874</v>
+        <v>9.75608945231917</v>
       </c>
       <c r="D14">
-        <v>9.132369419051315</v>
+        <v>6.56241777761802</v>
       </c>
       <c r="E14">
-        <v>8.988582411873379</v>
+        <v>12.33068592313161</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.47786380286169</v>
+        <v>32.99995976028371</v>
       </c>
       <c r="H14">
-        <v>9.435212333115135</v>
+        <v>15.22709994599735</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.1900230279844</v>
+        <v>10.06578484188147</v>
       </c>
       <c r="L14">
-        <v>7.742088361339512</v>
+        <v>9.693671618384974</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.59325869751303</v>
+        <v>19.07430371062897</v>
       </c>
       <c r="O14">
-        <v>16.30176301401102</v>
+        <v>23.77581151799101</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.3347685860278</v>
+        <v>14.00038669700447</v>
       </c>
       <c r="C15">
-        <v>7.112273320537335</v>
+        <v>9.756652623513805</v>
       </c>
       <c r="D15">
-        <v>9.080611253169915</v>
+        <v>6.546642976432311</v>
       </c>
       <c r="E15">
-        <v>8.967438518277474</v>
+        <v>12.33016259523368</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.39979926907872</v>
+        <v>32.99666180397658</v>
       </c>
       <c r="H15">
-        <v>9.43371501794814</v>
+        <v>15.23075575734885</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.11940809376133</v>
+        <v>10.04238076291635</v>
       </c>
       <c r="L15">
-        <v>7.714991061323646</v>
+        <v>9.690292742053138</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.61801370402629</v>
+        <v>19.08088501381311</v>
       </c>
       <c r="O15">
-        <v>16.28210154443275</v>
+        <v>23.7799122866812</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.73663761376861</v>
+        <v>13.81179632763134</v>
       </c>
       <c r="C16">
-        <v>7.118132608592919</v>
+        <v>9.760011103791943</v>
       </c>
       <c r="D16">
-        <v>8.779191180403314</v>
+        <v>6.455959475779944</v>
       </c>
       <c r="E16">
-        <v>8.847262518863795</v>
+        <v>12.32784184520924</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>26.95848290821677</v>
+        <v>32.98054747936928</v>
       </c>
       <c r="H16">
-        <v>9.427347870529486</v>
+        <v>15.25239757214297</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.70822263614865</v>
+        <v>9.907560347152595</v>
       </c>
       <c r="L16">
-        <v>7.559130577888911</v>
+        <v>9.671388932095683</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.76042769565407</v>
+        <v>19.11909667530367</v>
       </c>
       <c r="O16">
-        <v>16.1739458101662</v>
+        <v>23.80484255354236</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.36064390583406</v>
+        <v>13.69538533307293</v>
       </c>
       <c r="C17">
-        <v>7.122009957572331</v>
+        <v>9.762188778395418</v>
       </c>
       <c r="D17">
-        <v>8.589956100865512</v>
+        <v>6.400106318991063</v>
       </c>
       <c r="E17">
-        <v>8.774442824084927</v>
+        <v>12.32702440347639</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>26.69318352899657</v>
+        <v>32.97314904040708</v>
       </c>
       <c r="H17">
-        <v>9.425373353365577</v>
+        <v>15.26629137883032</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.4501477715782</v>
+        <v>9.824268572419323</v>
       </c>
       <c r="L17">
-        <v>7.463037124537469</v>
+        <v>9.660205288772346</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.84831101620255</v>
+        <v>19.14298257309036</v>
       </c>
       <c r="O17">
-        <v>16.11156663307436</v>
+        <v>23.82141192917103</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.1410344091105</v>
+        <v>13.62818991901722</v>
       </c>
       <c r="C18">
-        <v>7.124343361082277</v>
+        <v>9.763484568739383</v>
       </c>
       <c r="D18">
-        <v>8.479513525280206</v>
+        <v>6.367912549408376</v>
       </c>
       <c r="E18">
-        <v>8.732899245386003</v>
+        <v>12.32677742975701</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.54260465176021</v>
+        <v>32.96980835651072</v>
       </c>
       <c r="H18">
-        <v>9.424930347939528</v>
+        <v>15.27450953165447</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.299566467766</v>
+        <v>9.776163742094143</v>
       </c>
       <c r="L18">
-        <v>7.407606298114845</v>
+        <v>9.653925974354152</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.89905823909397</v>
+        <v>19.15688474416409</v>
       </c>
       <c r="O18">
-        <v>16.07712311132068</v>
+        <v>23.83141053481052</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.06610167780581</v>
+        <v>13.60540005678341</v>
       </c>
       <c r="C19">
-        <v>7.125151081174168</v>
+        <v>9.763930740768387</v>
       </c>
       <c r="D19">
-        <v>8.441843842040255</v>
+        <v>6.357001781315269</v>
       </c>
       <c r="E19">
-        <v>8.718892531822826</v>
+        <v>12.32673217837363</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.49196880028485</v>
+        <v>32.96883440716803</v>
       </c>
       <c r="H19">
-        <v>9.424897706974642</v>
+        <v>15.2773310069484</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.248213923875</v>
+        <v>9.759843976633329</v>
       </c>
       <c r="L19">
-        <v>7.38881234327681</v>
+        <v>9.651826348283656</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.91627540836043</v>
+        <v>19.16161991930703</v>
       </c>
       <c r="O19">
-        <v>16.06570532272695</v>
+        <v>23.83487628947774</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.40101515606977</v>
+        <v>13.7078027689346</v>
       </c>
       <c r="C20">
-        <v>7.121586505253092</v>
+        <v>9.761952487799004</v>
       </c>
       <c r="D20">
-        <v>8.610265808742719</v>
+        <v>6.406059370594814</v>
       </c>
       <c r="E20">
-        <v>8.782159558589358</v>
+        <v>12.32708833003468</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.72121701322199</v>
+        <v>32.97384196094142</v>
       </c>
       <c r="H20">
-        <v>9.425511469038399</v>
+        <v>15.26478888530262</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.47784207945702</v>
+        <v>9.833155963559632</v>
       </c>
       <c r="L20">
-        <v>7.473283396116415</v>
+        <v>9.661379978997719</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.83893528609129</v>
+        <v>19.14042295113335</v>
       </c>
       <c r="O20">
-        <v>16.11805790265705</v>
+        <v>23.81959961034426</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.48640853796283</v>
+        <v>14.04883579865461</v>
       </c>
       <c r="C21">
-        <v>7.110848603395631</v>
+        <v>9.755821712477411</v>
       </c>
       <c r="D21">
-        <v>9.157104079300529</v>
+        <v>6.56997674779435</v>
       </c>
       <c r="E21">
-        <v>8.998738737558194</v>
+        <v>12.33094885471197</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.51540408345006</v>
+        <v>33.00159044797218</v>
       </c>
       <c r="H21">
-        <v>9.435970104215018</v>
+        <v>15.22535912433022</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.22376961431384</v>
+        <v>10.07699475561109</v>
       </c>
       <c r="L21">
-        <v>7.755071558390071</v>
+        <v>9.695299953324486</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.58139744584072</v>
+        <v>19.07115657343949</v>
       </c>
       <c r="O21">
-        <v>16.31127192514292</v>
+        <v>23.77387040330941</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.16635929756389</v>
+        <v>14.2690819180767</v>
       </c>
       <c r="C22">
-        <v>7.104765445273012</v>
+        <v>9.752197443797485</v>
       </c>
       <c r="D22">
-        <v>9.500479207602039</v>
+        <v>6.676225550028181</v>
       </c>
       <c r="E22">
-        <v>9.143148506899283</v>
+        <v>12.33545053832357</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.05201683271252</v>
+        <v>33.02785329518906</v>
       </c>
       <c r="H22">
-        <v>9.44933991517258</v>
+        <v>15.20160987224292</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.69225627288792</v>
+        <v>10.23424540890447</v>
       </c>
       <c r="L22">
-        <v>7.937498568364741</v>
+        <v>9.718803518792827</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.41465693942769</v>
+        <v>19.02733645883805</v>
       </c>
       <c r="O22">
-        <v>16.45082795635143</v>
+        <v>23.74816205364564</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.80612890173274</v>
+        <v>14.15179773200932</v>
       </c>
       <c r="C23">
-        <v>7.107925848168355</v>
+        <v>9.754096906161607</v>
       </c>
       <c r="D23">
-        <v>9.318484560111408</v>
+        <v>6.619611803599149</v>
       </c>
       <c r="E23">
-        <v>9.065820293488603</v>
+        <v>12.33286733543243</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.76402727487883</v>
+        <v>33.01309378007912</v>
       </c>
       <c r="H23">
-        <v>9.441588398191216</v>
+        <v>15.2141003990776</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.44395203103236</v>
+        <v>10.15052746837886</v>
       </c>
       <c r="L23">
-        <v>7.840306568913324</v>
+        <v>9.706138559262017</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.50351524950984</v>
+        <v>19.05059182193416</v>
       </c>
       <c r="O23">
-        <v>16.37510595661967</v>
+        <v>23.76150042500261</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.38277405078696</v>
+        <v>13.70218967880917</v>
       </c>
       <c r="C24">
-        <v>7.121777623451972</v>
+        <v>9.76205917826865</v>
       </c>
       <c r="D24">
-        <v>8.601088927987231</v>
+        <v>6.403368251575059</v>
       </c>
       <c r="E24">
-        <v>8.77866981982929</v>
+        <v>12.32705873417841</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.70853701180385</v>
+        <v>32.9735258481642</v>
       </c>
       <c r="H24">
-        <v>9.425446875026704</v>
+        <v>15.26546744488818</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.46532836905876</v>
+        <v>9.829138653021609</v>
       </c>
       <c r="L24">
-        <v>7.46865163067424</v>
+        <v>9.660848433027763</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.84317336026813</v>
+        <v>19.14157962704935</v>
       </c>
       <c r="O24">
-        <v>16.11511878514712</v>
+        <v>23.82041748749084</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.71923671220088</v>
+        <v>13.20842505997425</v>
       </c>
       <c r="C25">
-        <v>7.140659090107198</v>
+        <v>9.772302829081735</v>
       </c>
       <c r="D25">
-        <v>7.765978929139774</v>
+        <v>6.167675526422506</v>
       </c>
       <c r="E25">
-        <v>8.482047866746585</v>
+        <v>12.32932960634401</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.64720804583703</v>
+        <v>32.96581224429265</v>
       </c>
       <c r="H25">
-        <v>9.434308831108741</v>
+        <v>15.3295456823916</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.32779854119675</v>
+        <v>9.475151846744236</v>
       </c>
       <c r="L25">
-        <v>7.061872586203818</v>
+        <v>9.617868277353613</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.21726242117415</v>
+        <v>19.24598568864271</v>
       </c>
       <c r="O25">
-        <v>15.88921362105295</v>
+        <v>23.90186806213683</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.84023821168083</v>
+        <v>14.38184222856675</v>
       </c>
       <c r="C2">
-        <v>9.781283343322601</v>
+        <v>7.157877678387655</v>
       </c>
       <c r="D2">
-        <v>5.993580226704076</v>
+        <v>7.097094417042174</v>
       </c>
       <c r="E2">
-        <v>12.33837409638935</v>
+        <v>8.275784286333781</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>32.9901924768825</v>
+        <v>24.93357938527066</v>
       </c>
       <c r="H2">
-        <v>15.38418426132653</v>
+        <v>9.461490470205664</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.210244328205697</v>
+        <v>11.41969693072243</v>
       </c>
       <c r="L2">
-        <v>9.591404291577017</v>
+        <v>6.759276682018693</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.32830099535265</v>
+        <v>12.50036820676726</v>
       </c>
       <c r="O2">
-        <v>23.97718350526246</v>
+        <v>15.76673864327781</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.58943077656771</v>
+        <v>13.40417260578369</v>
       </c>
       <c r="C3">
-        <v>9.788274168705188</v>
+        <v>7.171582938058582</v>
       </c>
       <c r="D3">
-        <v>5.8760839877027</v>
+        <v>6.609474466856674</v>
       </c>
       <c r="E3">
-        <v>12.34911265211248</v>
+        <v>8.143982581526014</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.02542002083</v>
+        <v>24.49265591509547</v>
       </c>
       <c r="H3">
-        <v>15.42586574712571</v>
+        <v>9.491845966823663</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.02916486235115</v>
+        <v>10.76050581078882</v>
       </c>
       <c r="L3">
-        <v>9.576760776188625</v>
+        <v>6.553471733777301</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.38750980939713</v>
+        <v>12.69749124357422</v>
       </c>
       <c r="O3">
-        <v>24.03776683323631</v>
+        <v>15.70941742433438</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.43536905247331</v>
+        <v>12.77745732303183</v>
       </c>
       <c r="C4">
-        <v>9.793015334259689</v>
+        <v>7.180992493177098</v>
       </c>
       <c r="D4">
-        <v>5.804475455930962</v>
+        <v>6.293056031463657</v>
       </c>
       <c r="E4">
-        <v>12.35798159761138</v>
+        <v>8.067118546296447</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.05625012720981</v>
+        <v>24.24298547670685</v>
       </c>
       <c r="H4">
-        <v>15.45375310135008</v>
+        <v>9.516062986172624</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.917613391251496</v>
+        <v>10.33436634496217</v>
       </c>
       <c r="L4">
-        <v>9.569410654456531</v>
+        <v>6.427196806658259</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.42556190027062</v>
+        <v>12.82126717065248</v>
       </c>
       <c r="O4">
-        <v>24.07966041423783</v>
+        <v>15.68629214507521</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.37265995368571</v>
+        <v>12.53389610761661</v>
       </c>
       <c r="C5">
-        <v>9.795060631811774</v>
+        <v>7.185075673362541</v>
       </c>
       <c r="D5">
-        <v>5.775474109837433</v>
+        <v>6.179811450179939</v>
       </c>
       <c r="E5">
-        <v>12.36216818544895</v>
+        <v>8.036834316153698</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>33.07112251779789</v>
+        <v>24.14652002468351</v>
       </c>
       <c r="H5">
-        <v>15.46569442698788</v>
+        <v>9.527289616083241</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.872124763251906</v>
+        <v>10.1553763334892</v>
       </c>
       <c r="L5">
-        <v>9.566830612962923</v>
+        <v>6.375834711055878</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.44149657264376</v>
+        <v>12.87241660106893</v>
       </c>
       <c r="O5">
-        <v>24.09791130606978</v>
+        <v>15.67981141274958</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.36225414564156</v>
+        <v>12.49303745289441</v>
       </c>
       <c r="C6">
-        <v>9.79540710232998</v>
+        <v>7.185768665724004</v>
       </c>
       <c r="D6">
-        <v>5.7706706436894</v>
+        <v>6.160851357664329</v>
       </c>
       <c r="E6">
-        <v>12.36289794169544</v>
+        <v>8.031868800752155</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>33.07373135920385</v>
+        <v>24.13081980535388</v>
       </c>
       <c r="H6">
-        <v>15.46771212340668</v>
+        <v>9.529234517651485</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.864571409365132</v>
+        <v>10.12533459328498</v>
       </c>
       <c r="L6">
-        <v>9.566427344268151</v>
+        <v>6.367314084685859</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.44416840805015</v>
+        <v>12.88095337016061</v>
       </c>
       <c r="O6">
-        <v>24.10101300344635</v>
+        <v>15.67891028181753</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.43452292452396</v>
+        <v>12.77420051058362</v>
       </c>
       <c r="C7">
-        <v>9.793042458862642</v>
+        <v>7.18104655507977</v>
       </c>
       <c r="D7">
-        <v>5.804083545846699</v>
+        <v>6.291539298818778</v>
       </c>
       <c r="E7">
-        <v>12.35803574149084</v>
+        <v>8.066705897598366</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.05644135992272</v>
+        <v>24.24166318155466</v>
       </c>
       <c r="H7">
-        <v>15.45391181003883</v>
+        <v>9.5162089524222</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.916999956199131</v>
+        <v>10.33197395262646</v>
       </c>
       <c r="L7">
-        <v>9.569374174869846</v>
+        <v>6.426503631298885</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.42577506567042</v>
+        <v>12.82195408975402</v>
       </c>
       <c r="O7">
-        <v>24.0799017811437</v>
+        <v>15.68619295177549</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.7538258908751</v>
+        <v>14.05208459005148</v>
       </c>
       <c r="C8">
-        <v>9.783600869568644</v>
+        <v>7.162396005592406</v>
       </c>
       <c r="D8">
-        <v>5.952983561099656</v>
+        <v>6.932500056309586</v>
       </c>
       <c r="E8">
-        <v>12.34160468180769</v>
+        <v>8.229506792337785</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>33.00042700311513</v>
+        <v>24.77717369073487</v>
       </c>
       <c r="H8">
-        <v>15.3980797464507</v>
+        <v>9.470771968683019</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.147921236525086</v>
+        <v>11.19687028580583</v>
       </c>
       <c r="L8">
-        <v>9.586016208835591</v>
+        <v>6.688339149207723</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.34836460600367</v>
+        <v>12.56777975322382</v>
       </c>
       <c r="O8">
-        <v>23.99709715806537</v>
+        <v>15.74441480575589</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.3756744375495</v>
+        <v>16.29693486174516</v>
       </c>
       <c r="C9">
-        <v>9.768629828308798</v>
+        <v>7.133779094612133</v>
       </c>
       <c r="D9">
-        <v>6.24726268915424</v>
+        <v>8.055590136826682</v>
       </c>
       <c r="E9">
-        <v>12.327421171345</v>
+        <v>8.580137361231472</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>32.96373786607671</v>
+        <v>25.99426542210833</v>
       </c>
       <c r="H9">
-        <v>15.3068023259555</v>
+        <v>9.427986486173907</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.595197682465301</v>
+        <v>12.72194539435623</v>
       </c>
       <c r="L9">
-        <v>9.631549618820149</v>
+        <v>7.199521092940271</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.20997482035023</v>
+        <v>12.09012541224603</v>
       </c>
       <c r="O9">
-        <v>23.87204415663869</v>
+        <v>15.95828471752947</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.82504546528502</v>
+        <v>17.77908879621179</v>
       </c>
       <c r="C10">
-        <v>9.759768467599306</v>
+        <v>7.117704217374493</v>
       </c>
       <c r="D10">
-        <v>6.462322477160375</v>
+        <v>8.800568241214535</v>
       </c>
       <c r="E10">
-        <v>12.32796533691305</v>
+        <v>8.855617292058588</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>32.98151559446007</v>
+        <v>26.98902711049049</v>
       </c>
       <c r="H10">
-        <v>15.25084292730789</v>
+        <v>9.427668276295472</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.917036502837009</v>
+        <v>13.73738048174823</v>
       </c>
       <c r="L10">
-        <v>9.672685728080543</v>
+        <v>7.570072641709078</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.11639327484547</v>
+        <v>11.75042591907378</v>
       </c>
       <c r="O10">
-        <v>23.80301536288514</v>
+        <v>16.1812599522722</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.02688335729686</v>
+        <v>18.41779737233009</v>
       </c>
       <c r="C11">
-        <v>9.756196641129058</v>
+        <v>7.111490173657876</v>
       </c>
       <c r="D11">
-        <v>6.559402341912223</v>
+        <v>9.122490229795508</v>
       </c>
       <c r="E11">
-        <v>12.33058322531167</v>
+        <v>8.98453527209635</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32.99931831986341</v>
+        <v>27.46291222566978</v>
       </c>
       <c r="H11">
-        <v>15.22779637151254</v>
+        <v>9.434917313096767</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.06131209341119</v>
+        <v>14.17654449466203</v>
       </c>
       <c r="L11">
-        <v>9.69302370692083</v>
+        <v>7.736908858257394</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.07556033697212</v>
+        <v>11.59799053903826</v>
       </c>
       <c r="O11">
-        <v>23.77659017256266</v>
+        <v>16.29798550035524</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.10286777368044</v>
+        <v>18.65461085636408</v>
       </c>
       <c r="C12">
-        <v>9.754909729044501</v>
+        <v>7.109297211269324</v>
       </c>
       <c r="D12">
-        <v>6.596016203992868</v>
+        <v>9.241987813073745</v>
       </c>
       <c r="E12">
-        <v>12.33191414464206</v>
+        <v>9.033846702005679</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>33.00745457936239</v>
+        <v>27.64538015619006</v>
       </c>
       <c r="H12">
-        <v>15.21941575616375</v>
+        <v>9.438779082705095</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.11558754374332</v>
+        <v>14.33958181329017</v>
       </c>
       <c r="L12">
-        <v>9.700954649087972</v>
+        <v>7.799790890745322</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.06034655287849</v>
+        <v>11.54053933928703</v>
       </c>
       <c r="O12">
-        <v>23.76730030224388</v>
+        <v>16.34445985767602</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.08652421891455</v>
+        <v>18.60383257004788</v>
       </c>
       <c r="C13">
-        <v>9.755183974322302</v>
+        <v>7.109762344991892</v>
       </c>
       <c r="D13">
-        <v>6.588137958077703</v>
+        <v>9.216358393652348</v>
       </c>
       <c r="E13">
-        <v>12.33161242678917</v>
+        <v>9.023205062929893</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>33.00564031047644</v>
+        <v>27.60594907299306</v>
       </c>
       <c r="H13">
-        <v>15.22120525427468</v>
+        <v>9.437896854464345</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.10391510055972</v>
+        <v>14.30461379808445</v>
       </c>
       <c r="L13">
-        <v>9.699236447412112</v>
+        <v>7.786261922732812</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.06361206750936</v>
+        <v>11.55290082553874</v>
       </c>
       <c r="O13">
-        <v>23.76926914643943</v>
+        <v>16.33434855653116</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.03314402190172</v>
+        <v>18.43738106535505</v>
       </c>
       <c r="C14">
-        <v>9.75608945231917</v>
+        <v>7.111306534280012</v>
       </c>
       <c r="D14">
-        <v>6.56241777761802</v>
+        <v>9.132369419051276</v>
       </c>
       <c r="E14">
-        <v>12.33068592313161</v>
+        <v>8.988582411873359</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>32.99995976028371</v>
+        <v>27.47786380286187</v>
       </c>
       <c r="H14">
-        <v>15.22709994599735</v>
+        <v>9.435212333115135</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.06578484188147</v>
+        <v>14.19002302798444</v>
       </c>
       <c r="L14">
-        <v>9.693671618384974</v>
+        <v>7.742088361339468</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.07430371062897</v>
+        <v>11.59325869751316</v>
       </c>
       <c r="O14">
-        <v>23.77581151799101</v>
+        <v>16.3017630140111</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.00038669700447</v>
+        <v>18.33476858602774</v>
       </c>
       <c r="C15">
-        <v>9.756652623513805</v>
+        <v>7.11227332053747</v>
       </c>
       <c r="D15">
-        <v>6.546642976432311</v>
+        <v>9.080611253169854</v>
       </c>
       <c r="E15">
-        <v>12.33016259523368</v>
+        <v>8.967438518277476</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32.99666180397658</v>
+        <v>27.39979926907871</v>
       </c>
       <c r="H15">
-        <v>15.23075575734885</v>
+        <v>9.433715017948151</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.04238076291635</v>
+        <v>14.1194080937613</v>
       </c>
       <c r="L15">
-        <v>9.690292742053138</v>
+        <v>7.714991061323623</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.08088501381311</v>
+        <v>11.61801370402625</v>
       </c>
       <c r="O15">
-        <v>23.7799122866812</v>
+        <v>16.28210154443276</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.81179632763134</v>
+        <v>17.73663761376858</v>
       </c>
       <c r="C16">
-        <v>9.760011103791943</v>
+        <v>7.118132608592791</v>
       </c>
       <c r="D16">
-        <v>6.455959475779944</v>
+        <v>8.77919118040329</v>
       </c>
       <c r="E16">
-        <v>12.32784184520924</v>
+        <v>8.847262518863806</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>32.98054747936928</v>
+        <v>26.95848290821698</v>
       </c>
       <c r="H16">
-        <v>15.25239757214297</v>
+        <v>9.427347870529486</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.907560347152595</v>
+        <v>13.70822263614862</v>
       </c>
       <c r="L16">
-        <v>9.671388932095683</v>
+        <v>7.559130577888912</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.11909667530367</v>
+        <v>11.7604276956542</v>
       </c>
       <c r="O16">
-        <v>23.80484255354236</v>
+        <v>16.17394581016629</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.69538533307293</v>
+        <v>17.36064390583405</v>
       </c>
       <c r="C17">
-        <v>9.762188778395418</v>
+        <v>7.122009957572212</v>
       </c>
       <c r="D17">
-        <v>6.400106318991063</v>
+        <v>8.589956100865482</v>
       </c>
       <c r="E17">
-        <v>12.32702440347639</v>
+        <v>8.774442824084897</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>32.97314904040708</v>
+        <v>26.69318352899673</v>
       </c>
       <c r="H17">
-        <v>15.26629137883032</v>
+        <v>9.425373353365627</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.824268572419323</v>
+        <v>13.45014777157817</v>
       </c>
       <c r="L17">
-        <v>9.660205288772346</v>
+        <v>7.463037124537488</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.14298257309036</v>
+        <v>11.84831101620265</v>
       </c>
       <c r="O17">
-        <v>23.82141192917103</v>
+        <v>16.11156663307445</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.62818991901722</v>
+        <v>17.14103440911046</v>
       </c>
       <c r="C18">
-        <v>9.763484568739383</v>
+        <v>7.124343361082394</v>
       </c>
       <c r="D18">
-        <v>6.367912549408376</v>
+        <v>8.479513525280186</v>
       </c>
       <c r="E18">
-        <v>12.32677742975701</v>
+        <v>8.732899245386012</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>32.96980835651072</v>
+        <v>26.5426046517602</v>
       </c>
       <c r="H18">
-        <v>15.27450953165447</v>
+        <v>9.424930347939524</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.776163742094143</v>
+        <v>13.29956646776598</v>
       </c>
       <c r="L18">
-        <v>9.653925974354152</v>
+        <v>7.407606298114825</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.15688474416409</v>
+        <v>11.89905823909397</v>
       </c>
       <c r="O18">
-        <v>23.83141053481052</v>
+        <v>16.07712311132068</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.60540005678341</v>
+        <v>17.06610167780578</v>
       </c>
       <c r="C19">
-        <v>9.763930740768387</v>
+        <v>7.125151081174308</v>
       </c>
       <c r="D19">
-        <v>6.357001781315269</v>
+        <v>8.441843842040232</v>
       </c>
       <c r="E19">
-        <v>12.32673217837363</v>
+        <v>8.718892531822789</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>32.96883440716803</v>
+        <v>26.49196880028487</v>
       </c>
       <c r="H19">
-        <v>15.2773310069484</v>
+        <v>9.424897706974649</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.759843976633329</v>
+        <v>13.24821392387499</v>
       </c>
       <c r="L19">
-        <v>9.651826348283656</v>
+        <v>7.388812343276798</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.16161991930703</v>
+        <v>11.91627540836046</v>
       </c>
       <c r="O19">
-        <v>23.83487628947774</v>
+        <v>16.06570532272699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.7078027689346</v>
+        <v>17.40101515606975</v>
       </c>
       <c r="C20">
-        <v>9.761952487799004</v>
+        <v>7.121586505253346</v>
       </c>
       <c r="D20">
-        <v>6.406059370594814</v>
+        <v>8.610265808742819</v>
       </c>
       <c r="E20">
-        <v>12.32708833003468</v>
+        <v>8.78215955858939</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>32.97384196094142</v>
+        <v>26.72121701322209</v>
       </c>
       <c r="H20">
-        <v>15.26478888530262</v>
+        <v>9.425511469038424</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.833155963559632</v>
+        <v>13.47784207945698</v>
       </c>
       <c r="L20">
-        <v>9.661379978997719</v>
+        <v>7.473283396116442</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.14042295113335</v>
+        <v>11.83893528609135</v>
       </c>
       <c r="O20">
-        <v>23.81959961034426</v>
+        <v>16.11805790265712</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.04883579865461</v>
+        <v>18.48640853796286</v>
       </c>
       <c r="C21">
-        <v>9.755821712477411</v>
+        <v>7.110848603395765</v>
       </c>
       <c r="D21">
-        <v>6.56997674779435</v>
+        <v>9.15710407930055</v>
       </c>
       <c r="E21">
-        <v>12.33094885471197</v>
+        <v>8.998738737558192</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>33.00159044797218</v>
+        <v>27.51540408345009</v>
       </c>
       <c r="H21">
-        <v>15.22535912433022</v>
+        <v>9.435970104214931</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.07699475561109</v>
+        <v>14.22376961431387</v>
       </c>
       <c r="L21">
-        <v>9.695299953324486</v>
+        <v>7.755071558390078</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.07115657343949</v>
+        <v>11.58139744584072</v>
       </c>
       <c r="O21">
-        <v>23.77387040330941</v>
+        <v>16.31127192514289</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.2690819180767</v>
+        <v>19.16635929756391</v>
       </c>
       <c r="C22">
-        <v>9.752197443797485</v>
+        <v>7.10476544527315</v>
       </c>
       <c r="D22">
-        <v>6.676225550028181</v>
+        <v>9.500479207601972</v>
       </c>
       <c r="E22">
-        <v>12.33545053832357</v>
+        <v>9.143148506899305</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>33.02785329518906</v>
+        <v>28.05201683271241</v>
       </c>
       <c r="H22">
-        <v>15.20160987224292</v>
+        <v>9.449339915172633</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.23424540890447</v>
+        <v>14.69225627288795</v>
       </c>
       <c r="L22">
-        <v>9.718803518792827</v>
+        <v>7.937498568364758</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.02733645883805</v>
+        <v>11.41465693942766</v>
       </c>
       <c r="O22">
-        <v>23.74816205364564</v>
+        <v>16.4508279563514</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.15179773200932</v>
+        <v>18.80612890173276</v>
       </c>
       <c r="C23">
-        <v>9.754096906161607</v>
+        <v>7.10792584816822</v>
       </c>
       <c r="D23">
-        <v>6.619611803599149</v>
+        <v>9.318484560111228</v>
       </c>
       <c r="E23">
-        <v>12.33286733543243</v>
+        <v>9.065820293488617</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>33.01309378007912</v>
+        <v>27.7640272748789</v>
       </c>
       <c r="H23">
-        <v>15.2141003990776</v>
+        <v>9.441588398191184</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.15052746837886</v>
+        <v>14.44395203103238</v>
       </c>
       <c r="L23">
-        <v>9.706138559262017</v>
+        <v>7.840306568913329</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.05059182193416</v>
+        <v>11.50351524950984</v>
       </c>
       <c r="O23">
-        <v>23.76150042500261</v>
+        <v>16.37510595661969</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.70218967880917</v>
+        <v>17.38277405078696</v>
       </c>
       <c r="C24">
-        <v>9.76205917826865</v>
+        <v>7.121777623452089</v>
       </c>
       <c r="D24">
-        <v>6.403368251575059</v>
+        <v>8.601088927987128</v>
       </c>
       <c r="E24">
-        <v>12.32705873417841</v>
+        <v>8.778669819829323</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>32.9735258481642</v>
+        <v>26.70853701180404</v>
       </c>
       <c r="H24">
-        <v>15.26546744488818</v>
+        <v>9.425446875026715</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.829138653021609</v>
+        <v>13.46532836905875</v>
       </c>
       <c r="L24">
-        <v>9.660848433027763</v>
+        <v>7.468651630674236</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.14157962704935</v>
+        <v>11.84317336026823</v>
       </c>
       <c r="O24">
-        <v>23.82041748749084</v>
+        <v>16.11511878514724</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.20842505997425</v>
+        <v>15.71923671220089</v>
       </c>
       <c r="C25">
-        <v>9.772302829081735</v>
+        <v>7.140659090107332</v>
       </c>
       <c r="D25">
-        <v>6.167675526422506</v>
+        <v>7.765978929139765</v>
       </c>
       <c r="E25">
-        <v>12.32932960634401</v>
+        <v>8.482047866746672</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>32.96581224429265</v>
+        <v>25.64720804583694</v>
       </c>
       <c r="H25">
-        <v>15.3295456823916</v>
+        <v>9.434308831108645</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.475151846744236</v>
+        <v>12.32779854119681</v>
       </c>
       <c r="L25">
-        <v>9.617868277353613</v>
+        <v>7.061872586203805</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.24598568864271</v>
+        <v>12.21726242117411</v>
       </c>
       <c r="O25">
-        <v>23.90186806213683</v>
+        <v>15.88921362105286</v>
       </c>
     </row>
   </sheetData>
